--- a/expimp/1. Свойства материалов.xlsx
+++ b/expimp/1. Свойства материалов.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="СвойстваМатериалов" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -267,8 +267,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,7 +415,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,7 +449,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -626,435 +624,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
         <v>81</v>
       </c>
@@ -1066,12 +1064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1079,12 +1077,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/expimp/1. Свойства материалов.xlsx
+++ b/expimp/1. Свойства материалов.xlsx
@@ -628,7 +628,7 @@
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
